--- a/Area de Proceso PP-PMC/REGRI_V0.2_2015.xlsx
+++ b/Area de Proceso PP-PMC/REGRI_V0.2_2015.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aol.UTP\12\Proyecto I\Proyecto TopBody\SistemaDeMatricula-ParaSocios-TopBody\Area de Proceso PP-PMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18915" windowHeight="1620"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1497,6 +1502,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1533,9 +1607,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1550,72 +1621,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1629,6 +1634,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1684,6 +1692,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="47625"/>
+          <a:ext cx="1276350" cy="880787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1730,7 +1782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,7 +1817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1974,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="B1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,113 +2041,113 @@
     <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="98" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="108" t="s">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="108"/>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="108" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="108"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="2:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="109">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="88">
         <v>42297</v>
       </c>
-      <c r="F7" s="108"/>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105" t="s">
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="113">
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="92">
         <f>AVERAGE(H13:H20)/4.5</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="F8" s="108"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="87"/>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="110" t="s">
+    <row r="11" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="110" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="110" t="s">
+      <c r="G11" s="90"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95" t="s">
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="96"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="75"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2108,14 +2160,14 @@
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="I12" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97" t="s">
+      <c r="J12" s="76"/>
+      <c r="K12" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="97"/>
+      <c r="L12" s="76"/>
       <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2126,14 +2178,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="94"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2147,14 +2199,14 @@
         <f>F13*G13</f>
         <v>1.5</v>
       </c>
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="92"/>
-      <c r="K13" s="86" t="s">
+      <c r="J13" s="94"/>
+      <c r="K13" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="4" t="s">
         <v>41</v>
       </c>
@@ -2163,14 +2215,14 @@
       </c>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2184,14 +2236,14 @@
         <f t="shared" ref="H14:H20" si="0">F14*G14</f>
         <v>0.6</v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="86" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="4" t="s">
         <v>42</v>
       </c>
@@ -2200,14 +2252,14 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2221,14 +2273,14 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="86" t="s">
+      <c r="J15" s="94"/>
+      <c r="K15" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="4" t="s">
         <v>43</v>
       </c>
@@ -2239,14 +2291,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
@@ -2260,14 +2312,14 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="92" t="s">
+      <c r="I16" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="86" t="s">
+      <c r="J16" s="94"/>
+      <c r="K16" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="4" t="s">
         <v>44</v>
       </c>
@@ -2280,10 +2332,10 @@
       <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2297,14 +2349,14 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="86" t="s">
+      <c r="J17" s="94"/>
+      <c r="K17" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="86"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="4" t="s">
         <v>45</v>
       </c>
@@ -2317,10 +2369,10 @@
       <c r="B18" s="3">
         <v>6</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2334,14 +2386,14 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="86" t="s">
+      <c r="J18" s="94"/>
+      <c r="K18" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="86"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="4" t="s">
         <v>45</v>
       </c>
@@ -2354,10 +2406,10 @@
       <c r="B19" s="3">
         <v>7</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="4" t="s">
         <v>29</v>
       </c>
@@ -2371,14 +2423,14 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="I19" s="92" t="s">
+      <c r="I19" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="92"/>
-      <c r="K19" s="86" t="s">
+      <c r="J19" s="94"/>
+      <c r="K19" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="4" t="s">
         <v>46</v>
       </c>
@@ -2393,10 +2445,10 @@
       <c r="B20" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="93"/>
       <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
@@ -2410,14 +2462,14 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I20" s="92" t="s">
+      <c r="I20" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="86" t="s">
+      <c r="J20" s="94"/>
+      <c r="K20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2428,14 +2480,14 @@
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="5" t="s">
         <v>90</v>
       </c>
@@ -2446,12 +2498,12 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="89" t="s">
+      <c r="P26" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="91"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="113"/>
     </row>
     <row r="27" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
@@ -2464,16 +2516,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="77" t="s">
+      <c r="P27" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="Q27" s="78"/>
+      <c r="Q27" s="101"/>
       <c r="R27" s="9" t="s">
         <v>52</v>
       </c>
@@ -2492,16 +2544,16 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="82"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="11" t="s">
         <v>54</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="80"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
       <c r="R28" s="12" t="s">
         <v>55</v>
       </c>
@@ -2511,7 +2563,7 @@
     </row>
     <row r="29" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="106" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2566,7 +2618,7 @@
     </row>
     <row r="30" spans="2:19" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="84"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="29" t="s">
         <v>62</v>
       </c>
@@ -2619,7 +2671,7 @@
     </row>
     <row r="31" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
-      <c r="C31" s="84"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="29" t="s">
         <v>67</v>
       </c>
@@ -2672,7 +2724,7 @@
     </row>
     <row r="32" spans="2:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
-      <c r="C32" s="84"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="29" t="s">
         <v>72</v>
       </c>
@@ -2725,7 +2777,7 @@
     </row>
     <row r="33" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="85"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="47" t="s">
         <v>77</v>
       </c>
@@ -3012,39 +3064,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="P27:Q28"/>
     <mergeCell ref="L28:M28"/>
@@ -3058,6 +3077,39 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
